--- a/biology/Zoologie/Histopona/Histopona.xlsx
+++ b/biology/Zoologie/Histopona/Histopona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Histopona est un genre d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Histopona est un genre d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 10/09/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 10/09/2023) :
 Histopona bidens (Absolon &amp; Kratochvíl, 1933)
 Histopona breviemboli Dimitrov, Deltshev &amp; Lazarov, 2017
 Histopona conveniens (Kulczyński, 1914)
@@ -568,7 +584,7 @@
 Histopona torpida (C. L. Koch, 1837)
 Histopona tranteevi Deltshev, 1978
 Histopona vignai Brignoli, 1980
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Histopona anthracina Bertkau, 1878</t>
         </is>
       </c>
@@ -597,10 +613,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Thorell en 1870 dans les Agelenidae.
-Roeweriana[3] a été placé en synonymie par Deeleman-Reinhold en 1983[4].
+Roeweriana a été placé en synonymie par Deeleman-Reinhold en 1983.
 </t>
         </is>
       </c>
@@ -629,7 +647,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1870 : « On European spiders. Part 2. » Nova acta Regiae Societatis Scientiarum Upsaliensis, sér. 3, vol. 7, p. 109-242 (texte intégral).</t>
         </is>
